--- a/test_files/a.xlsx
+++ b/test_files/a.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="21240" windowHeight="13560"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="ver. 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="170">
   <si>
     <t xml:space="preserve">Nazwa urządzenia: </t>
   </si>
@@ -183,16 +183,7 @@
     <t>Materiałówka</t>
   </si>
   <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
     <t>W</t>
-  </si>
-  <si>
-    <t>4.</t>
   </si>
   <si>
     <t>Pakowanie</t>
@@ -302,12 +293,6 @@
     <t>L.W. Bogdanka</t>
   </si>
   <si>
-    <t>PLA-88.34.00.00</t>
-  </si>
-  <si>
-    <t>Koło duże kpl.</t>
-  </si>
-  <si>
     <t>PLA-88.34.01.00</t>
   </si>
   <si>
@@ -356,18 +341,6 @@
     <t>2.</t>
   </si>
   <si>
-    <t>PLA-88.28.00.00-1</t>
-  </si>
-  <si>
-    <t>Korba kpl.</t>
-  </si>
-  <si>
-    <t>PLA-88.28.01.00-1</t>
-  </si>
-  <si>
-    <t>Korba</t>
-  </si>
-  <si>
     <t>PLA-88.28.01.01-1</t>
   </si>
   <si>
@@ -398,12 +371,6 @@
     <t>Blacha 2x20x35</t>
   </si>
   <si>
-    <t>PLA-88.28.02.00-1</t>
-  </si>
-  <si>
-    <t>Rękojeść</t>
-  </si>
-  <si>
     <t>PLA-88.28.02.01-1</t>
   </si>
   <si>
@@ -416,12 +383,6 @@
     <t>Blacha f12x20</t>
   </si>
   <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
     <t>3.1.1</t>
   </si>
   <si>
@@ -440,24 +401,12 @@
     <t>S235JR</t>
   </si>
   <si>
-    <t>3.2</t>
-  </si>
-  <si>
     <t>3.2.1</t>
   </si>
   <si>
     <t>3.2.2</t>
   </si>
   <si>
-    <t>PLA-88.26.00.00</t>
-  </si>
-  <si>
-    <t>Napinacz łańcucha pociągowego</t>
-  </si>
-  <si>
-    <t>PLA-88.26.01.00</t>
-  </si>
-  <si>
     <t>PLA-88.26.01.01</t>
   </si>
   <si>
@@ -482,21 +431,12 @@
     <t>Sworzeń Ø30/90-78</t>
   </si>
   <si>
-    <t>PLA-88.26.03.00</t>
-  </si>
-  <si>
-    <t>Koło łańcucha napinacza kpl.</t>
-  </si>
-  <si>
     <t>PLA-88.26.03.01</t>
   </si>
   <si>
     <t>Koło łańcucha napinacza</t>
   </si>
   <si>
-    <t>4.1</t>
-  </si>
-  <si>
     <t>4.1.1</t>
   </si>
   <si>
@@ -507,9 +447,6 @@
   </si>
   <si>
     <t>4.2</t>
-  </si>
-  <si>
-    <t>4.3</t>
   </si>
   <si>
     <t>4.3.1</t>
@@ -929,7 +866,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1081,15 +1018,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1417,17 +1345,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1458,43 +1375,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1544,7 +1424,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1627,25 +1507,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="10" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1675,7 +1555,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1755,11 +1635,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1769,17 +1649,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1791,13 +1671,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1812,7 +1689,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1833,28 +1710,28 @@
     <xf numFmtId="0" fontId="33" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="10" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="21" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1863,31 +1740,31 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="9" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="14" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="8" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="8" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="14" fillId="8" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1902,16 +1779,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1920,37 +1791,10 @@
     <xf numFmtId="14" fontId="14" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1959,7 +1803,7 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1968,7 +1812,7 @@
     <xf numFmtId="44" fontId="17" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="3" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="17" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1977,88 +1821,118 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="40" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="40" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="41" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="42" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="43" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="12" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="45" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="46" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="41" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="47" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="48" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="12" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2073,67 +1947,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4145,8 +3974,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B6:AM34" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79" tableBorderDxfId="77" headerRowCellStyle="Normalny 3" dataCellStyle="Normalny 3">
-  <autoFilter ref="B6:AM34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B6:AM27" totalsRowShown="0" headerRowDxfId="80" dataDxfId="78" headerRowBorderDxfId="79" tableBorderDxfId="77" headerRowCellStyle="Normalny 3" dataCellStyle="Normalny 3">
+  <autoFilter ref="B6:AM27"/>
   <tableColumns count="38">
     <tableColumn id="1" name="L.p." totalsRowDxfId="76"/>
     <tableColumn id="2" name="Nr rys." totalsRowDxfId="75"/>
@@ -4452,7 +4281,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4460,10 +4289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CP62"/>
+  <dimension ref="A1:CP55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -4501,20 +4330,20 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="202" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="202"/>
-      <c r="I1" s="206" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="206"/>
+      <c r="H1" s="175"/>
+      <c r="I1" s="179" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="179"/>
       <c r="K1" s="5"/>
       <c r="L1" s="6"/>
       <c r="M1" s="7"/>
@@ -4543,14 +4372,14 @@
         <v>2</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="158" t="s">
-        <v>182</v>
-      </c>
-      <c r="G2" s="203" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="203"/>
-      <c r="I2" s="204"/>
+      <c r="F2" s="146" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="176" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="176"/>
+      <c r="I2" s="177"/>
       <c r="K2" s="5"/>
       <c r="L2" s="10"/>
       <c r="M2" s="11"/>
@@ -4629,12 +4458,12 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="205" t="str">
-        <f>H41</f>
+      <c r="D4" s="178" t="str">
+        <f>H34</f>
         <v>Zabezpieczenie antykorozyjne: Gruntoemalia alkidowa RAL 5018, półpołysk</v>
       </c>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
       <c r="G4" s="21" t="s">
         <v>9</v>
       </c>
@@ -4642,7 +4471,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="14"/>
@@ -4655,10 +4484,10 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q4" s="182" t="s">
+      <c r="Q4" s="180" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="183"/>
+      <c r="R4" s="181"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
@@ -4675,29 +4504,29 @@
     </row>
     <row r="5" spans="1:94" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="B5" s="2"/>
-      <c r="C5" s="184" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="185"/>
+      <c r="C5" s="182" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="183"/>
       <c r="E5" s="25"/>
-      <c r="F5" s="186" t="s">
+      <c r="F5" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="187"/>
+      <c r="G5" s="185"/>
       <c r="H5" s="14"/>
-      <c r="I5" s="128"/>
-      <c r="K5" s="188" t="s">
+      <c r="I5" s="127"/>
+      <c r="K5" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="189"/>
+      <c r="L5" s="187"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-      <c r="O5" s="190" t="s">
+      <c r="O5" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="191"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="130"/>
+      <c r="P5" s="189"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="129"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -4716,118 +4545,118 @@
       <c r="A6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="144" t="s">
+      <c r="E6" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="145" t="s">
+      <c r="F6" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="145" t="s">
+      <c r="G6" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="145" t="s">
+      <c r="H6" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="146" t="s">
+      <c r="I6" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="144" t="s">
+      <c r="J6" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="95" t="s">
+      <c r="K6" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="147" t="s">
+      <c r="L6" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="148" t="s">
+      <c r="M6" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="149" t="s">
+      <c r="N6" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="150" t="s">
+      <c r="O6" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="151" t="s">
+      <c r="P6" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="152" t="s">
+      <c r="Q6" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="153" t="s">
+      <c r="R6" s="141" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="154" t="s">
+      <c r="S6" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="154" t="s">
+      <c r="T6" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="U6" s="155" t="s">
+      <c r="U6" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="159" t="s">
+      <c r="V6" s="147" t="s">
         <v>36</v>
       </c>
-      <c r="W6" s="160" t="s">
+      <c r="W6" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="X6" s="159" t="s">
+      <c r="X6" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="Y6" s="161" t="s">
+      <c r="Y6" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="Z6" s="159" t="s">
+      <c r="Z6" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="AA6" s="160" t="s">
+      <c r="AA6" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="AB6" s="159" t="s">
+      <c r="AB6" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="AC6" s="160" t="s">
+      <c r="AC6" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="AD6" s="162" t="s">
+      <c r="AD6" s="150" t="s">
         <v>44</v>
       </c>
-      <c r="AE6" s="163" t="s">
+      <c r="AE6" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="AF6" s="164" t="s">
+      <c r="AF6" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="AG6" s="163" t="s">
+      <c r="AG6" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="AH6" s="159" t="s">
+      <c r="AH6" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="AI6" s="160" t="s">
+      <c r="AI6" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="AJ6" s="164" t="s">
+      <c r="AJ6" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="AK6" s="163" t="s">
+      <c r="AK6" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="AL6" s="156" t="s">
+      <c r="AL6" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="AM6" s="157" t="s">
+      <c r="AM6" s="145" t="s">
         <v>53</v>
       </c>
       <c r="AN6" s="2"/>
@@ -4886,2395 +4715,2181 @@
       <c r="CO6" s="2"/>
       <c r="CP6" s="2"/>
     </row>
-    <row r="7" spans="1:94" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="131" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="96" t="s">
+    <row r="7" spans="1:94" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
+      <c r="A7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="98" t="s">
         <v>93</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="102" t="s">
+        <v>90</v>
       </c>
       <c r="E7" s="125">
         <v>1</v>
       </c>
-      <c r="F7" s="97">
-        <v>1.34</v>
-      </c>
-      <c r="G7" s="97">
-        <v>1.34</v>
-      </c>
-      <c r="H7" s="96"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="132" t="s">
-        <v>179</v>
-      </c>
-      <c r="K7" s="133" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="134">
-        <v>42349</v>
-      </c>
-      <c r="M7" s="133" t="s">
-        <v>183</v>
-      </c>
-      <c r="N7" s="135"/>
-      <c r="O7" s="136">
-        <v>150</v>
-      </c>
-      <c r="P7" s="137">
-        <f t="shared" ref="P7:P34" si="0">O7*E7</f>
-        <v>150</v>
-      </c>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="139"/>
-      <c r="S7" s="92" t="str">
-        <f t="shared" ref="S7:S34" si="1">IF(P7=R7,"NIE","TAK")</f>
-        <v>TAK</v>
-      </c>
-      <c r="T7" s="140">
-        <f t="shared" ref="T7:T34" si="2">P7-R7</f>
-        <v>150</v>
-      </c>
-      <c r="U7" s="141"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="142"/>
-      <c r="Y7" s="142"/>
-      <c r="Z7" s="142"/>
-      <c r="AA7" s="142"/>
-      <c r="AB7" s="142"/>
-      <c r="AC7" s="142"/>
-      <c r="AD7" s="142"/>
-      <c r="AE7" s="142"/>
-      <c r="AF7" s="142"/>
-      <c r="AG7" s="142"/>
-      <c r="AH7" s="142"/>
-      <c r="AI7" s="142"/>
-      <c r="AJ7" s="142"/>
-      <c r="AK7" s="142"/>
-      <c r="AL7" s="142"/>
-      <c r="AM7" s="143"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="104"/>
+      <c r="J7" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" s="114"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="123"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="122">
+        <f t="shared" ref="P7:P27" si="0">O7*E7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="111" t="str">
+        <f t="shared" ref="S7:S27" si="1">IF(P7=R7,"NIE","TAK")</f>
+        <v>NIE</v>
+      </c>
+      <c r="T7" s="117">
+        <f t="shared" ref="T7:T27" si="2">P7-R7</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="118"/>
+      <c r="V7" s="92"/>
+      <c r="W7" s="92"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AE7" s="92"/>
+      <c r="AF7" s="92"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="92"/>
+      <c r="AI7" s="92"/>
+      <c r="AJ7" s="92"/>
+      <c r="AK7" s="92"/>
+      <c r="AL7" s="92"/>
+      <c r="AM7" s="93"/>
     </row>
-    <row r="8" spans="1:94" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
+    <row r="8" spans="1:94" s="2" customFormat="1" ht="13.5" customHeight="1" outlineLevel="1">
       <c r="A8" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="99" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="103" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="126">
+      <c r="C8" s="102" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="125">
         <v>1</v>
       </c>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="103" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="105"/>
-      <c r="J8" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="K8" s="115"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="133" t="s">
-        <v>183</v>
-      </c>
-      <c r="N8" s="124"/>
-      <c r="O8" s="122"/>
-      <c r="P8" s="123">
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="104"/>
+      <c r="J8" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="K8" s="114"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="N8" s="123"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="112" t="str">
+      <c r="Q8" s="115"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T8" s="118">
+      <c r="T8" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U8" s="119"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="93"/>
-      <c r="X8" s="93"/>
-      <c r="Y8" s="93"/>
-      <c r="Z8" s="93"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="93"/>
-      <c r="AF8" s="93"/>
-      <c r="AG8" s="93"/>
-      <c r="AH8" s="93"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="93"/>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="94"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="92"/>
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="92"/>
+      <c r="AL8" s="92"/>
+      <c r="AM8" s="93"/>
     </row>
-    <row r="9" spans="1:94" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
+    <row r="9" spans="1:94" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="124">
+        <v>1</v>
+      </c>
+      <c r="F9" s="96">
+        <v>2.23</v>
+      </c>
+      <c r="G9" s="96">
+        <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
+        <v>2.23</v>
+      </c>
+      <c r="H9" s="95">
+        <v>45</v>
+      </c>
+      <c r="I9" s="97"/>
+      <c r="J9" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9" s="114" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" s="131">
+        <v>42349</v>
+      </c>
+      <c r="M9" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="N9" s="123"/>
+      <c r="O9" s="121">
+        <v>107</v>
+      </c>
+      <c r="P9" s="122">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="111" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="T9" s="117">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="U9" s="118"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="92"/>
+      <c r="AM9" s="93"/>
+    </row>
+    <row r="10" spans="1:94" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
+      <c r="A10" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="125">
+        <v>2</v>
+      </c>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="126">
-        <v>1</v>
-      </c>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="105"/>
-      <c r="J9" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" s="115"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="133" t="s">
-        <v>183</v>
-      </c>
-      <c r="N9" s="124"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="123">
+      <c r="I10" s="104"/>
+      <c r="J10" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="114"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="116"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="112" t="str">
+      <c r="Q10" s="115"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T9" s="118">
+      <c r="T10" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U9" s="119"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="93"/>
-      <c r="AK9" s="93"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="94"/>
+      <c r="U10" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="V10" s="153"/>
+      <c r="W10" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="155"/>
+      <c r="AL10" s="153"/>
+      <c r="AM10" s="93"/>
     </row>
-    <row r="10" spans="1:94" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="106" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="96" t="s">
+    <row r="11" spans="1:94" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
+      <c r="A11" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D11" s="102" t="s">
         <v>108</v>
-      </c>
-      <c r="E10" s="125">
-        <v>1</v>
-      </c>
-      <c r="F10" s="97">
-        <v>2.23</v>
-      </c>
-      <c r="G10" s="97">
-        <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
-        <v>2.23</v>
-      </c>
-      <c r="H10" s="96">
-        <v>45</v>
-      </c>
-      <c r="I10" s="98"/>
-      <c r="J10" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="K10" s="115" t="s">
-        <v>180</v>
-      </c>
-      <c r="L10" s="134">
-        <v>42349</v>
-      </c>
-      <c r="M10" s="133" t="s">
-        <v>183</v>
-      </c>
-      <c r="N10" s="124"/>
-      <c r="O10" s="122">
-        <v>107</v>
-      </c>
-      <c r="P10" s="123">
-        <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="112" t="str">
-        <f t="shared" si="1"/>
-        <v>TAK</v>
-      </c>
-      <c r="T10" s="118">
-        <f t="shared" si="2"/>
-        <v>107</v>
-      </c>
-      <c r="U10" s="119"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="93"/>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="93"/>
-      <c r="AH10" s="93"/>
-      <c r="AI10" s="93"/>
-      <c r="AJ10" s="93"/>
-      <c r="AK10" s="93"/>
-      <c r="AL10" s="93"/>
-      <c r="AM10" s="94"/>
-    </row>
-    <row r="11" spans="1:94" s="2" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A11" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="106" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="D11" s="96" t="s">
-        <v>111</v>
       </c>
       <c r="E11" s="125">
         <v>2</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="98"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="104"/>
       <c r="J11" s="108" t="s">
-        <v>181</v>
-      </c>
-      <c r="K11" s="115"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="123">
+        <v>160</v>
+      </c>
+      <c r="K11" s="114"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="116"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="112" t="str">
+      <c r="Q11" s="115"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T11" s="118">
+      <c r="T11" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U11" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V11" s="165"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93"/>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93"/>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="94"/>
+      <c r="U11" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="V11" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC11" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="155"/>
+      <c r="AL11" s="153"/>
+      <c r="AM11" s="93"/>
     </row>
-    <row r="12" spans="1:94" s="2" customFormat="1" ht="12.75" customHeight="1">
+    <row r="12" spans="1:94" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A12" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="99" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="100" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="100" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="127">
+        <v>95</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="125">
         <v>2</v>
       </c>
-      <c r="F12" s="101">
-        <v>3.29</v>
-      </c>
-      <c r="G12" s="101">
-        <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
-        <v>6.58</v>
-      </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="110" t="s">
-        <v>181</v>
-      </c>
-      <c r="K12" s="115"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="123">
+      <c r="F12" s="164"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="104"/>
+      <c r="J12" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12" s="114"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="112" t="str">
+      <c r="Q12" s="115"/>
+      <c r="R12" s="116"/>
+      <c r="S12" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T12" s="118">
+      <c r="T12" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U12" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V12" s="175"/>
-      <c r="W12" s="167"/>
-      <c r="X12" s="167"/>
-      <c r="Y12" s="167"/>
-      <c r="Z12" s="167"/>
-      <c r="AA12" s="167"/>
-      <c r="AB12" s="167"/>
-      <c r="AC12" s="167"/>
-      <c r="AD12" s="167"/>
-      <c r="AE12" s="167"/>
-      <c r="AF12" s="167" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG12" s="167" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH12" s="167"/>
-      <c r="AI12" s="167" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ12" s="167"/>
-      <c r="AK12" s="168"/>
-      <c r="AL12" s="165"/>
-      <c r="AM12" s="94"/>
+      <c r="U12" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="V12" s="153"/>
+      <c r="W12" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="92"/>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="92"/>
+      <c r="AJ12" s="92"/>
+      <c r="AK12" s="155"/>
+      <c r="AL12" s="153"/>
+      <c r="AM12" s="93"/>
     </row>
     <row r="13" spans="1:94" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A13" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="126">
+        <v>95</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="125">
         <v>2</v>
       </c>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" s="105"/>
-      <c r="J13" s="109" t="s">
-        <v>181</v>
-      </c>
-      <c r="K13" s="115"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="123">
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="104"/>
+      <c r="J13" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="114"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="116"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="112" t="str">
+      <c r="Q13" s="115"/>
+      <c r="R13" s="116"/>
+      <c r="S13" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T13" s="118">
+      <c r="T13" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U13" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V13" s="165"/>
-      <c r="W13" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-      <c r="Z13" s="93"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="93"/>
-      <c r="AE13" s="93"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="93"/>
-      <c r="AH13" s="93"/>
-      <c r="AI13" s="93"/>
-      <c r="AJ13" s="93"/>
-      <c r="AK13" s="169"/>
-      <c r="AL13" s="165"/>
-      <c r="AM13" s="94"/>
+      <c r="U13" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="V13" s="153"/>
+      <c r="W13" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="155"/>
+      <c r="AL13" s="153"/>
+      <c r="AM13" s="93"/>
     </row>
-    <row r="14" spans="1:94" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
+    <row r="14" spans="1:94" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A14" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="99" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="103" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="103" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="126">
-        <v>2</v>
-      </c>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="105"/>
-      <c r="J14" s="109" t="s">
-        <v>181</v>
-      </c>
-      <c r="K14" s="115"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="123">
+        <v>95</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="125">
+        <v>4</v>
+      </c>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="104"/>
+      <c r="J14" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" s="114"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="116"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="112" t="str">
+      <c r="Q14" s="115"/>
+      <c r="R14" s="116"/>
+      <c r="S14" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T14" s="118">
+      <c r="T14" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U14" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V14" s="165" t="s">
-        <v>185</v>
-      </c>
-      <c r="W14" s="93"/>
-      <c r="X14" s="93"/>
-      <c r="Y14" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z14" s="93"/>
-      <c r="AA14" s="93"/>
-      <c r="AB14" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC14" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD14" s="93"/>
-      <c r="AE14" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="93"/>
-      <c r="AH14" s="93"/>
-      <c r="AI14" s="93"/>
-      <c r="AJ14" s="93"/>
-      <c r="AK14" s="169"/>
-      <c r="AL14" s="165"/>
-      <c r="AM14" s="94"/>
+      <c r="U14" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="V14" s="159"/>
+      <c r="W14" s="156"/>
+      <c r="X14" s="156" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y14" s="156"/>
+      <c r="Z14" s="156" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA14" s="156"/>
+      <c r="AB14" s="156"/>
+      <c r="AC14" s="156"/>
+      <c r="AD14" s="156"/>
+      <c r="AE14" s="156"/>
+      <c r="AF14" s="156"/>
+      <c r="AG14" s="156"/>
+      <c r="AH14" s="156"/>
+      <c r="AI14" s="156"/>
+      <c r="AJ14" s="156"/>
+      <c r="AK14" s="157"/>
+      <c r="AL14" s="153"/>
+      <c r="AM14" s="93"/>
     </row>
     <row r="15" spans="1:94" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A15" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="103" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="126">
+        <v>95</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="125">
         <v>2</v>
       </c>
-      <c r="F15" s="181"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="105"/>
-      <c r="J15" s="109" t="s">
-        <v>181</v>
-      </c>
-      <c r="K15" s="115"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="123">
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="104"/>
+      <c r="J15" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" s="114"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="112" t="str">
+      <c r="Q15" s="115"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T15" s="118">
+      <c r="T15" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U15" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V15" s="165"/>
-      <c r="W15" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="X15" s="93"/>
-      <c r="Y15" s="93"/>
-      <c r="Z15" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA15" s="93"/>
-      <c r="AB15" s="93"/>
-      <c r="AC15" s="93"/>
-      <c r="AD15" s="93"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="93"/>
-      <c r="AH15" s="93"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="93"/>
-      <c r="AK15" s="169"/>
-      <c r="AL15" s="165"/>
-      <c r="AM15" s="94"/>
+      <c r="U15" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="V15" s="153" t="s">
+        <v>164</v>
+      </c>
+      <c r="W15" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="92"/>
+      <c r="AF15" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG15" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="155"/>
+      <c r="AL15" s="153"/>
+      <c r="AM15" s="93"/>
     </row>
     <row r="16" spans="1:94" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A16" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="103" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" s="103" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="126">
+        <v>95</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="125">
         <v>2</v>
       </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="I16" s="105"/>
-      <c r="J16" s="109" t="s">
-        <v>181</v>
-      </c>
-      <c r="K16" s="115"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="123">
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="104"/>
+      <c r="J16" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" s="114"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="112" t="str">
+      <c r="Q16" s="115"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T16" s="118">
+      <c r="T16" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U16" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V16" s="165"/>
-      <c r="W16" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="X16" s="93"/>
-      <c r="Y16" s="93"/>
-      <c r="Z16" s="93"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
-      <c r="AC16" s="93"/>
-      <c r="AD16" s="93"/>
-      <c r="AE16" s="93"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="93"/>
-      <c r="AH16" s="93"/>
-      <c r="AI16" s="93"/>
-      <c r="AJ16" s="93"/>
-      <c r="AK16" s="169"/>
-      <c r="AL16" s="165"/>
-      <c r="AM16" s="94"/>
+      <c r="U16" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="V16" s="153" t="s">
+        <v>166</v>
+      </c>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="155"/>
+      <c r="AL16" s="153"/>
+      <c r="AM16" s="93"/>
     </row>
-    <row r="17" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" thickBot="1">
+    <row r="17" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A17" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="103" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="103" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="126">
-        <v>4</v>
-      </c>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="105"/>
-      <c r="J17" s="109" t="s">
-        <v>181</v>
-      </c>
-      <c r="K17" s="115"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="123">
+        <v>95</v>
+      </c>
+      <c r="B17" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="125">
+        <v>1</v>
+      </c>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="104"/>
+      <c r="J17" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="114"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="116"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="112" t="str">
+      <c r="Q17" s="115"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T17" s="118">
+      <c r="T17" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U17" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V17" s="176"/>
-      <c r="W17" s="170"/>
-      <c r="X17" s="170" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y17" s="170"/>
-      <c r="Z17" s="170" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA17" s="170"/>
-      <c r="AB17" s="170"/>
-      <c r="AC17" s="170"/>
-      <c r="AD17" s="170"/>
-      <c r="AE17" s="170"/>
-      <c r="AF17" s="170"/>
-      <c r="AG17" s="170"/>
-      <c r="AH17" s="170"/>
-      <c r="AI17" s="170"/>
-      <c r="AJ17" s="170"/>
-      <c r="AK17" s="171"/>
-      <c r="AL17" s="165"/>
-      <c r="AM17" s="94"/>
+      <c r="U17" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="V17" s="153"/>
+      <c r="W17" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="X17" s="92"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="92"/>
+      <c r="AD17" s="92"/>
+      <c r="AE17" s="92"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="92"/>
+      <c r="AJ17" s="92"/>
+      <c r="AK17" s="155"/>
+      <c r="AL17" s="153"/>
+      <c r="AM17" s="93"/>
     </row>
-    <row r="18" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1">
+    <row r="18" spans="1:39" s="2" customFormat="1" ht="38.25" outlineLevel="1">
       <c r="A18" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="100" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="100" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="127">
-        <v>2</v>
-      </c>
-      <c r="F18" s="101">
-        <v>1.51</v>
-      </c>
-      <c r="G18" s="101">
-        <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
-        <v>3.02</v>
-      </c>
-      <c r="H18" s="100"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="110" t="s">
-        <v>181</v>
-      </c>
-      <c r="K18" s="115"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="123">
+      <c r="C18" s="102" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="102" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="125">
+        <v>1</v>
+      </c>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="104"/>
+      <c r="J18" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" s="114"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="114"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="112" t="str">
+      <c r="Q18" s="115"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T18" s="118">
+      <c r="T18" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U18" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V18" s="175"/>
-      <c r="W18" s="167"/>
-      <c r="X18" s="167"/>
-      <c r="Y18" s="167"/>
-      <c r="Z18" s="167"/>
-      <c r="AA18" s="167"/>
-      <c r="AB18" s="167"/>
-      <c r="AC18" s="167"/>
-      <c r="AD18" s="167"/>
-      <c r="AE18" s="167"/>
-      <c r="AF18" s="167" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG18" s="167" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH18" s="167"/>
-      <c r="AI18" s="167" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ18" s="167"/>
-      <c r="AK18" s="168"/>
-      <c r="AL18" s="165"/>
-      <c r="AM18" s="94"/>
+      <c r="U18" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="V18" s="160" t="s">
+        <v>167</v>
+      </c>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="155"/>
+      <c r="AL18" s="153"/>
+      <c r="AM18" s="93"/>
     </row>
-    <row r="19" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
+    <row r="19" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" thickBot="1">
       <c r="A19" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="126">
+      <c r="C19" s="102" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="102" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="125">
         <v>2</v>
       </c>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="105"/>
-      <c r="J19" s="109" t="s">
-        <v>181</v>
-      </c>
-      <c r="K19" s="115"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="122"/>
-      <c r="P19" s="123">
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="104"/>
+      <c r="J19" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" s="114"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="112" t="str">
+      <c r="Q19" s="115"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T19" s="118">
+      <c r="T19" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U19" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V19" s="165" t="s">
-        <v>185</v>
-      </c>
-      <c r="W19" s="93" t="s">
-        <v>186</v>
-      </c>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG19" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH19" s="93"/>
-      <c r="AI19" s="93"/>
-      <c r="AJ19" s="93"/>
-      <c r="AK19" s="169"/>
-      <c r="AL19" s="165"/>
-      <c r="AM19" s="94"/>
+      <c r="U19" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="V19" s="159"/>
+      <c r="W19" s="156" t="s">
+        <v>165</v>
+      </c>
+      <c r="X19" s="156"/>
+      <c r="Y19" s="156"/>
+      <c r="Z19" s="156"/>
+      <c r="AA19" s="156"/>
+      <c r="AB19" s="156"/>
+      <c r="AC19" s="156"/>
+      <c r="AD19" s="156"/>
+      <c r="AE19" s="156"/>
+      <c r="AF19" s="156"/>
+      <c r="AG19" s="156"/>
+      <c r="AH19" s="156"/>
+      <c r="AI19" s="156"/>
+      <c r="AJ19" s="156"/>
+      <c r="AK19" s="157"/>
+      <c r="AL19" s="153"/>
+      <c r="AM19" s="93"/>
     </row>
-    <row r="20" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
+    <row r="20" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A20" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="103" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="103" t="s">
-        <v>129</v>
+      <c r="C20" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="99" t="s">
+        <v>134</v>
       </c>
       <c r="E20" s="126">
-        <v>2</v>
-      </c>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="103" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" s="105"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="100">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="G20" s="100">
+        <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="H20" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="101"/>
       <c r="J20" s="109" t="s">
-        <v>181</v>
-      </c>
-      <c r="K20" s="115"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="124"/>
-      <c r="O20" s="122"/>
-      <c r="P20" s="123">
+        <v>160</v>
+      </c>
+      <c r="K20" s="114"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="112" t="str">
+      <c r="Q20" s="115"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T20" s="118">
+      <c r="T20" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U20" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V20" s="165" t="s">
-        <v>187</v>
-      </c>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="93"/>
-      <c r="AE20" s="93"/>
-      <c r="AF20" s="93"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-      <c r="AI20" s="93"/>
-      <c r="AJ20" s="93"/>
-      <c r="AK20" s="169"/>
-      <c r="AL20" s="165"/>
-      <c r="AM20" s="94"/>
+      <c r="U20" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="V20" s="161"/>
+      <c r="W20" s="154"/>
+      <c r="X20" s="154"/>
+      <c r="Y20" s="154"/>
+      <c r="Z20" s="154"/>
+      <c r="AA20" s="154"/>
+      <c r="AB20" s="154"/>
+      <c r="AC20" s="154"/>
+      <c r="AD20" s="154"/>
+      <c r="AE20" s="154"/>
+      <c r="AF20" s="154"/>
+      <c r="AG20" s="154"/>
+      <c r="AH20" s="154"/>
+      <c r="AI20" s="154"/>
+      <c r="AJ20" s="154"/>
+      <c r="AK20" s="154"/>
+      <c r="AL20" s="92"/>
+      <c r="AM20" s="93"/>
     </row>
-    <row r="21" spans="1:39" s="2" customFormat="1" ht="36" customHeight="1" thickBot="1">
+    <row r="21" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
       <c r="A21" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="173" t="s">
-        <v>142</v>
+      <c r="C21" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="102" t="s">
+        <v>136</v>
       </c>
       <c r="E21" s="125">
         <v>1</v>
       </c>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="98"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="104"/>
       <c r="J21" s="108" t="s">
-        <v>181</v>
-      </c>
-      <c r="K21" s="115"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="124"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="123">
+        <v>160</v>
+      </c>
+      <c r="K21" s="114"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="117"/>
-      <c r="S21" s="112" t="str">
+      <c r="Q21" s="115"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T21" s="118">
+      <c r="T21" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U21" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V21" s="165"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="93"/>
-      <c r="AE21" s="93"/>
-      <c r="AF21" s="93"/>
-      <c r="AG21" s="93"/>
-      <c r="AH21" s="93"/>
-      <c r="AI21" s="93"/>
-      <c r="AJ21" s="93"/>
-      <c r="AK21" s="93"/>
-      <c r="AL21" s="93"/>
-      <c r="AM21" s="94"/>
+      <c r="U21" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="V21" s="153"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="92"/>
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC21" s="92"/>
+      <c r="AD21" s="92"/>
+      <c r="AE21" s="92"/>
+      <c r="AF21" s="92"/>
+      <c r="AG21" s="92"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="92"/>
+      <c r="AJ21" s="92"/>
+      <c r="AK21" s="92"/>
+      <c r="AL21" s="92"/>
+      <c r="AM21" s="93"/>
     </row>
-    <row r="22" spans="1:39" s="2" customFormat="1" ht="25.5">
+    <row r="22" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A22" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="99" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="100" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="105" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="95" t="s">
         <v>143</v>
       </c>
-      <c r="D22" s="172" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="127">
+      <c r="D22" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="124">
         <v>1</v>
       </c>
-      <c r="F22" s="101">
-        <v>1.85</v>
-      </c>
-      <c r="G22" s="101">
+      <c r="F22" s="96">
+        <v>1.21</v>
+      </c>
+      <c r="G22" s="96">
         <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
-        <v>1.85</v>
-      </c>
-      <c r="H22" s="100"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="110" t="s">
-        <v>181</v>
-      </c>
-      <c r="K22" s="115"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="123">
+        <v>1.21</v>
+      </c>
+      <c r="H22" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="97"/>
+      <c r="J22" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="114"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="116"/>
-      <c r="R22" s="117"/>
-      <c r="S22" s="112" t="str">
+      <c r="Q22" s="115"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T22" s="118">
+      <c r="T22" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U22" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V22" s="175"/>
-      <c r="W22" s="167"/>
-      <c r="X22" s="167"/>
-      <c r="Y22" s="167"/>
-      <c r="Z22" s="167"/>
-      <c r="AA22" s="167"/>
-      <c r="AB22" s="167"/>
-      <c r="AC22" s="167"/>
-      <c r="AD22" s="167"/>
-      <c r="AE22" s="167"/>
-      <c r="AF22" s="167" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG22" s="167" t="s">
-        <v>184</v>
-      </c>
-      <c r="AH22" s="167"/>
-      <c r="AI22" s="167" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ22" s="167"/>
-      <c r="AK22" s="168"/>
-      <c r="AL22" s="165"/>
-      <c r="AM22" s="94"/>
+      <c r="U22" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="V22" s="162"/>
+      <c r="W22" s="158"/>
+      <c r="X22" s="158"/>
+      <c r="Y22" s="158"/>
+      <c r="Z22" s="158"/>
+      <c r="AA22" s="158"/>
+      <c r="AB22" s="158" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC22" s="158"/>
+      <c r="AD22" s="158"/>
+      <c r="AE22" s="158" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF22" s="158"/>
+      <c r="AG22" s="158"/>
+      <c r="AH22" s="158"/>
+      <c r="AI22" s="158"/>
+      <c r="AJ22" s="158"/>
+      <c r="AK22" s="158"/>
+      <c r="AL22" s="158"/>
+      <c r="AM22" s="158"/>
     </row>
-    <row r="23" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
+    <row r="23" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A23" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="103" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="103" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="126">
+        <v>95</v>
+      </c>
+      <c r="B23" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="124">
+        <v>2</v>
+      </c>
+      <c r="F23" s="96">
+        <v>0.46</v>
+      </c>
+      <c r="G23" s="96">
+        <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
+        <v>0.92</v>
+      </c>
+      <c r="H23" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="97"/>
+      <c r="J23" s="107" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="114" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23" s="131">
+        <v>42349</v>
+      </c>
+      <c r="M23" s="130" t="s">
+        <v>162</v>
+      </c>
+      <c r="N23" s="123"/>
+      <c r="O23" s="121">
+        <v>45</v>
+      </c>
+      <c r="P23" s="122">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="Q23" s="115"/>
+      <c r="R23" s="116"/>
+      <c r="S23" s="111" t="str">
+        <f t="shared" si="1"/>
+        <v>TAK</v>
+      </c>
+      <c r="T23" s="117">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="U23" s="119"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="92"/>
+      <c r="AB23" s="92"/>
+      <c r="AC23" s="92"/>
+      <c r="AD23" s="92"/>
+      <c r="AE23" s="92"/>
+      <c r="AF23" s="92"/>
+      <c r="AG23" s="92"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="92"/>
+      <c r="AJ23" s="92"/>
+      <c r="AK23" s="92"/>
+      <c r="AL23" s="92"/>
+      <c r="AM23" s="93"/>
+    </row>
+    <row r="24" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A24" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="124">
         <v>1</v>
       </c>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="105"/>
-      <c r="J23" s="109" t="s">
-        <v>181</v>
-      </c>
-      <c r="K23" s="115"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="124"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="123">
+      <c r="F24" s="96">
+        <v>0.15</v>
+      </c>
+      <c r="G24" s="96">
+        <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
+        <v>0.15</v>
+      </c>
+      <c r="H24" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" s="97"/>
+      <c r="J24" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" s="114"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="116"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="112" t="str">
+      <c r="Q24" s="115"/>
+      <c r="R24" s="116"/>
+      <c r="S24" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T23" s="118">
+      <c r="T24" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U23" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V23" s="165"/>
-      <c r="W23" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="93"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="93"/>
-      <c r="AC23" s="93"/>
-      <c r="AD23" s="93"/>
-      <c r="AE23" s="93"/>
-      <c r="AF23" s="93"/>
-      <c r="AG23" s="93"/>
-      <c r="AH23" s="93"/>
-      <c r="AI23" s="93"/>
-      <c r="AJ23" s="93"/>
-      <c r="AK23" s="169"/>
-      <c r="AL23" s="165"/>
-      <c r="AM23" s="94"/>
+      <c r="U24" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="V24" s="153"/>
+      <c r="W24" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="92"/>
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="92"/>
+      <c r="AL24" s="92"/>
+      <c r="AM24" s="93"/>
     </row>
-    <row r="24" spans="1:39" s="2" customFormat="1" ht="38.25" outlineLevel="1">
-      <c r="A24" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="103" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="103" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="126">
-        <v>1</v>
-      </c>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="I24" s="105"/>
-      <c r="J24" s="109" t="s">
-        <v>181</v>
-      </c>
-      <c r="K24" s="115"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="124"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="123">
+    <row r="25" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A25" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="105" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="124">
+        <v>2</v>
+      </c>
+      <c r="F25" s="96">
+        <v>2.27</v>
+      </c>
+      <c r="G25" s="96">
+        <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
+        <v>4.54</v>
+      </c>
+      <c r="H25" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="97"/>
+      <c r="J25" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="K25" s="114"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="112" t="str">
+      <c r="Q25" s="115"/>
+      <c r="R25" s="116"/>
+      <c r="S25" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T24" s="118">
+      <c r="T25" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U24" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V24" s="177" t="s">
-        <v>188</v>
-      </c>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="93"/>
-      <c r="AB24" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="93"/>
-      <c r="AE24" s="93"/>
-      <c r="AF24" s="93"/>
-      <c r="AG24" s="93"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="93"/>
-      <c r="AJ24" s="93"/>
-      <c r="AK24" s="169"/>
-      <c r="AL24" s="165"/>
-      <c r="AM24" s="94"/>
-    </row>
-    <row r="25" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1" thickBot="1">
-      <c r="A25" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="126">
-        <v>2</v>
-      </c>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" s="105"/>
-      <c r="J25" s="109" t="s">
-        <v>181</v>
-      </c>
-      <c r="K25" s="115"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="124"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="123">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="117"/>
-      <c r="S25" s="112" t="str">
-        <f t="shared" si="1"/>
-        <v>NIE</v>
-      </c>
-      <c r="T25" s="118">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V25" s="176"/>
-      <c r="W25" s="170" t="s">
-        <v>186</v>
-      </c>
-      <c r="X25" s="170"/>
-      <c r="Y25" s="170"/>
-      <c r="Z25" s="170"/>
-      <c r="AA25" s="170"/>
-      <c r="AB25" s="170"/>
-      <c r="AC25" s="170"/>
-      <c r="AD25" s="170"/>
-      <c r="AE25" s="170"/>
-      <c r="AF25" s="170"/>
-      <c r="AG25" s="170"/>
-      <c r="AH25" s="170"/>
-      <c r="AI25" s="170"/>
-      <c r="AJ25" s="170"/>
-      <c r="AK25" s="171"/>
-      <c r="AL25" s="165"/>
-      <c r="AM25" s="94"/>
+      <c r="U25" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="V25" s="162"/>
+      <c r="W25" s="158"/>
+      <c r="X25" s="158"/>
+      <c r="Y25" s="158"/>
+      <c r="Z25" s="158"/>
+      <c r="AA25" s="158"/>
+      <c r="AB25" s="158" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC25" s="158" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD25" s="158"/>
+      <c r="AE25" s="158" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF25" s="158"/>
+      <c r="AG25" s="158"/>
+      <c r="AH25" s="158"/>
+      <c r="AI25" s="158"/>
+      <c r="AJ25" s="158"/>
+      <c r="AK25" s="158"/>
+      <c r="AL25" s="158"/>
+      <c r="AM25" s="158"/>
     </row>
     <row r="26" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A26" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="124">
+        <v>1</v>
+      </c>
+      <c r="F26" s="96">
+        <v>0.39</v>
+      </c>
+      <c r="G26" s="96">
+        <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
+        <v>0.39</v>
+      </c>
+      <c r="H26" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="97"/>
+      <c r="J26" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="C26" s="100" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="100" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="127">
-        <v>1</v>
-      </c>
-      <c r="F26" s="101">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="G26" s="101">
-        <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="H26" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" s="102"/>
-      <c r="J26" s="110" t="s">
-        <v>181</v>
-      </c>
-      <c r="K26" s="115"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="124"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="123">
+      <c r="K26" s="114"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="114"/>
+      <c r="N26" s="123"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="116"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="112" t="str">
+      <c r="Q26" s="115"/>
+      <c r="R26" s="116"/>
+      <c r="S26" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T26" s="118">
+      <c r="T26" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U26" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V26" s="178"/>
-      <c r="W26" s="166"/>
-      <c r="X26" s="166"/>
-      <c r="Y26" s="166"/>
-      <c r="Z26" s="166"/>
-      <c r="AA26" s="166"/>
-      <c r="AB26" s="166"/>
-      <c r="AC26" s="166"/>
-      <c r="AD26" s="166"/>
-      <c r="AE26" s="166"/>
-      <c r="AF26" s="166"/>
-      <c r="AG26" s="166"/>
-      <c r="AH26" s="166"/>
-      <c r="AI26" s="166"/>
-      <c r="AJ26" s="166"/>
-      <c r="AK26" s="166"/>
-      <c r="AL26" s="93"/>
-      <c r="AM26" s="94"/>
+      <c r="U26" s="163" t="s">
+        <v>169</v>
+      </c>
+      <c r="V26" s="153"/>
+      <c r="W26" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="92"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="92"/>
+      <c r="AB26" s="92"/>
+      <c r="AC26" s="92"/>
+      <c r="AD26" s="92"/>
+      <c r="AE26" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF26" s="92"/>
+      <c r="AG26" s="92"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="92"/>
+      <c r="AJ26" s="92"/>
+      <c r="AK26" s="92"/>
+      <c r="AL26" s="92"/>
+      <c r="AM26" s="93"/>
     </row>
-    <row r="27" spans="1:39" s="2" customFormat="1" ht="26.25" customHeight="1">
+    <row r="27" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A27" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="172" t="s">
-        <v>153</v>
-      </c>
-      <c r="E27" s="127">
-        <v>1</v>
-      </c>
-      <c r="F27" s="101">
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="G27" s="101">
-        <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="H27" s="100"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="110" t="s">
-        <v>181</v>
-      </c>
-      <c r="K27" s="115"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="122"/>
-      <c r="P27" s="123">
+      <c r="B27" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="114"/>
+      <c r="N27" s="123"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="122">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="117"/>
-      <c r="S27" s="112" t="str">
+      <c r="Q27" s="115"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="111" t="str">
         <f t="shared" si="1"/>
         <v>NIE</v>
       </c>
-      <c r="T27" s="118">
+      <c r="T27" s="117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U27" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V27" s="165"/>
-      <c r="W27" s="93"/>
-      <c r="X27" s="93"/>
-      <c r="Y27" s="93"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="93"/>
-      <c r="AB27" s="93"/>
-      <c r="AC27" s="93"/>
-      <c r="AD27" s="93"/>
-      <c r="AE27" s="93"/>
-      <c r="AF27" s="93"/>
-      <c r="AG27" s="93"/>
-      <c r="AH27" s="93"/>
-      <c r="AI27" s="93"/>
-      <c r="AJ27" s="93"/>
-      <c r="AK27" s="93"/>
-      <c r="AL27" s="93"/>
-      <c r="AM27" s="94"/>
+      <c r="U27" s="120"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="92"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="92"/>
+      <c r="AB27" s="92"/>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="92"/>
+      <c r="AE27" s="92"/>
+      <c r="AF27" s="92"/>
+      <c r="AG27" s="92"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="92"/>
+      <c r="AJ27" s="92"/>
+      <c r="AK27" s="92"/>
+      <c r="AL27" s="92"/>
+      <c r="AM27" s="93"/>
     </row>
-    <row r="28" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1" outlineLevel="1">
-      <c r="A28" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="C28" s="103" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="103" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="126">
-        <v>1</v>
-      </c>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="105"/>
-      <c r="J28" s="109" t="s">
-        <v>181</v>
-      </c>
-      <c r="K28" s="115"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="124"/>
-      <c r="O28" s="122"/>
-      <c r="P28" s="123">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="116"/>
-      <c r="R28" s="117"/>
-      <c r="S28" s="112" t="str">
-        <f t="shared" si="1"/>
-        <v>NIE</v>
-      </c>
-      <c r="T28" s="118">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V28" s="165"/>
-      <c r="W28" s="93"/>
-      <c r="X28" s="93"/>
-      <c r="Y28" s="93"/>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="93"/>
-      <c r="AB28" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC28" s="93"/>
-      <c r="AD28" s="93"/>
-      <c r="AE28" s="93"/>
-      <c r="AF28" s="93"/>
-      <c r="AG28" s="93"/>
-      <c r="AH28" s="93"/>
-      <c r="AI28" s="93"/>
-      <c r="AJ28" s="93"/>
-      <c r="AK28" s="93"/>
-      <c r="AL28" s="93"/>
-      <c r="AM28" s="94"/>
-    </row>
-    <row r="29" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A29" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="106" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="96" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="96" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="125">
-        <v>1</v>
-      </c>
-      <c r="F29" s="97">
-        <v>1.21</v>
-      </c>
-      <c r="G29" s="97">
-        <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
-        <v>1.21</v>
-      </c>
-      <c r="H29" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="I29" s="98"/>
-      <c r="J29" s="108" t="s">
-        <v>181</v>
-      </c>
-      <c r="K29" s="115"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="124"/>
-      <c r="O29" s="122"/>
-      <c r="P29" s="123">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="116"/>
-      <c r="R29" s="117"/>
-      <c r="S29" s="112" t="str">
-        <f t="shared" si="1"/>
-        <v>NIE</v>
-      </c>
-      <c r="T29" s="118">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V29" s="179"/>
-      <c r="W29" s="174"/>
-      <c r="X29" s="174"/>
-      <c r="Y29" s="174"/>
-      <c r="Z29" s="174"/>
-      <c r="AA29" s="174"/>
-      <c r="AB29" s="174" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC29" s="174"/>
-      <c r="AD29" s="174"/>
-      <c r="AE29" s="174" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF29" s="174"/>
-      <c r="AG29" s="174"/>
-      <c r="AH29" s="174"/>
-      <c r="AI29" s="174"/>
-      <c r="AJ29" s="174"/>
-      <c r="AK29" s="174"/>
-      <c r="AL29" s="174"/>
-      <c r="AM29" s="174"/>
-    </row>
-    <row r="30" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A30" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="106" t="s">
-        <v>167</v>
-      </c>
-      <c r="C30" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="125">
-        <v>2</v>
-      </c>
-      <c r="F30" s="97">
-        <v>0.46</v>
-      </c>
-      <c r="G30" s="97">
-        <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
-        <v>0.92</v>
-      </c>
-      <c r="H30" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="I30" s="98"/>
-      <c r="J30" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="K30" s="115" t="s">
-        <v>180</v>
-      </c>
-      <c r="L30" s="134">
-        <v>42349</v>
-      </c>
-      <c r="M30" s="133" t="s">
-        <v>183</v>
-      </c>
-      <c r="N30" s="124"/>
-      <c r="O30" s="122">
-        <v>45</v>
-      </c>
-      <c r="P30" s="123">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="Q30" s="116"/>
-      <c r="R30" s="117"/>
-      <c r="S30" s="112" t="str">
-        <f t="shared" si="1"/>
-        <v>TAK</v>
-      </c>
-      <c r="T30" s="118">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="U30" s="120"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="93"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="93"/>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="93"/>
-      <c r="AB30" s="93"/>
-      <c r="AC30" s="93"/>
-      <c r="AD30" s="93"/>
-      <c r="AE30" s="93"/>
-      <c r="AF30" s="93"/>
-      <c r="AG30" s="93"/>
-      <c r="AH30" s="93"/>
-      <c r="AI30" s="93"/>
-      <c r="AJ30" s="93"/>
-      <c r="AK30" s="93"/>
-      <c r="AL30" s="93"/>
-      <c r="AM30" s="94"/>
-    </row>
-    <row r="31" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A31" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="106" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="96" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" s="96" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="125">
-        <v>1</v>
-      </c>
-      <c r="F31" s="97">
-        <v>0.15</v>
-      </c>
-      <c r="G31" s="97">
-        <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
-        <v>0.15</v>
-      </c>
-      <c r="H31" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31" s="98"/>
-      <c r="J31" s="108" t="s">
-        <v>181</v>
-      </c>
-      <c r="K31" s="115"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="124"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="123">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="116"/>
-      <c r="R31" s="117"/>
-      <c r="S31" s="112" t="str">
-        <f t="shared" si="1"/>
-        <v>NIE</v>
-      </c>
-      <c r="T31" s="118">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V31" s="165"/>
-      <c r="W31" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="X31" s="93"/>
-      <c r="Y31" s="93"/>
-      <c r="Z31" s="93"/>
-      <c r="AA31" s="93"/>
-      <c r="AB31" s="93"/>
-      <c r="AC31" s="93"/>
-      <c r="AD31" s="93"/>
-      <c r="AE31" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF31" s="93"/>
-      <c r="AG31" s="93"/>
-      <c r="AH31" s="93"/>
-      <c r="AI31" s="93"/>
-      <c r="AJ31" s="93"/>
-      <c r="AK31" s="93"/>
-      <c r="AL31" s="93"/>
-      <c r="AM31" s="94"/>
-    </row>
-    <row r="32" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A32" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="106" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="96" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" s="125">
-        <v>2</v>
-      </c>
-      <c r="F32" s="97">
-        <v>2.27</v>
-      </c>
-      <c r="G32" s="97">
-        <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
-        <v>4.54</v>
-      </c>
-      <c r="H32" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="I32" s="98"/>
-      <c r="J32" s="108" t="s">
-        <v>181</v>
-      </c>
-      <c r="K32" s="115"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="124"/>
-      <c r="O32" s="122"/>
-      <c r="P32" s="123">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="117"/>
-      <c r="S32" s="112" t="str">
-        <f t="shared" si="1"/>
-        <v>NIE</v>
-      </c>
-      <c r="T32" s="118">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U32" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V32" s="179"/>
-      <c r="W32" s="174"/>
-      <c r="X32" s="174"/>
-      <c r="Y32" s="174"/>
-      <c r="Z32" s="174"/>
-      <c r="AA32" s="174"/>
-      <c r="AB32" s="174" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC32" s="174" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD32" s="174"/>
-      <c r="AE32" s="174" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF32" s="174"/>
-      <c r="AG32" s="174"/>
-      <c r="AH32" s="174"/>
-      <c r="AI32" s="174"/>
-      <c r="AJ32" s="174"/>
-      <c r="AK32" s="174"/>
-      <c r="AL32" s="174"/>
-      <c r="AM32" s="174"/>
-    </row>
-    <row r="33" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A33" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="106" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="96" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="96" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="125">
-        <v>1</v>
-      </c>
-      <c r="F33" s="97">
-        <v>0.39</v>
-      </c>
-      <c r="G33" s="97">
-        <f>Tabela1[[#This Row],[jedn.]]*Tabela1[[#This Row],[Ilość]]</f>
-        <v>0.39</v>
-      </c>
-      <c r="H33" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="I33" s="98"/>
-      <c r="J33" s="108" t="s">
-        <v>181</v>
-      </c>
-      <c r="K33" s="115"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="124"/>
-      <c r="O33" s="122"/>
-      <c r="P33" s="123">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="116"/>
-      <c r="R33" s="117"/>
-      <c r="S33" s="112" t="str">
-        <f t="shared" si="1"/>
-        <v>NIE</v>
-      </c>
-      <c r="T33" s="118">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="V33" s="165"/>
-      <c r="W33" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="93"/>
-      <c r="AB33" s="93"/>
-      <c r="AC33" s="93"/>
-      <c r="AD33" s="93"/>
-      <c r="AE33" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF33" s="93"/>
-      <c r="AG33" s="93"/>
-      <c r="AH33" s="93"/>
-      <c r="AI33" s="93"/>
-      <c r="AJ33" s="93"/>
-      <c r="AK33" s="93"/>
-      <c r="AL33" s="93"/>
-      <c r="AM33" s="94"/>
-    </row>
-    <row r="34" spans="1:39" s="2" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A34" s="28" t="s">
+    <row r="28" spans="1:39" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="40">
+        <f>SUM(G7:G27)</f>
+        <v>10.111000000000001</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="107" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="124"/>
-      <c r="O34" s="122"/>
-      <c r="P34" s="123">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="117"/>
-      <c r="S34" s="112" t="str">
-        <f t="shared" si="1"/>
-        <v>NIE</v>
-      </c>
-      <c r="T34" s="118">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="121"/>
-      <c r="V34" s="93"/>
-      <c r="W34" s="93"/>
-      <c r="X34" s="93"/>
-      <c r="Y34" s="93"/>
-      <c r="Z34" s="93"/>
-      <c r="AA34" s="93"/>
-      <c r="AB34" s="93"/>
-      <c r="AC34" s="93"/>
-      <c r="AD34" s="93"/>
-      <c r="AE34" s="93"/>
-      <c r="AF34" s="93"/>
-      <c r="AG34" s="93"/>
-      <c r="AH34" s="93"/>
-      <c r="AI34" s="93"/>
-      <c r="AJ34" s="93"/>
-      <c r="AK34" s="93"/>
-      <c r="AL34" s="93"/>
-      <c r="AM34" s="94"/>
-    </row>
-    <row r="35" spans="1:39" s="1" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B35" s="36"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="40">
-        <f>SUM(G7:G34)</f>
-        <v>24.036999999999999</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="P35" s="113">
-        <f>SUM(P7:P34)</f>
-        <v>347</v>
-      </c>
-      <c r="Q35" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="R35" s="44" t="e">
+      <c r="P28" s="112">
+        <f>SUM(P7:P27)</f>
+        <v>197</v>
+      </c>
+      <c r="Q28" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="R28" s="44" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="S35" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="T35" s="44" t="e">
+      <c r="S28" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="T28" s="44" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U35" s="14"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
     </row>
-    <row r="36" spans="1:39" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="29" spans="1:39" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B29" s="36"/>
+      <c r="C29" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="38"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="46">
+        <f>SUBTOTAL(9, P7:P27)</f>
+        <v>197</v>
+      </c>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+    </row>
+    <row r="30" spans="1:39" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
+      <c r="B30" s="36"/>
+      <c r="C30" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="50">
+        <f>SUBTOTAL(9,G7:G27)</f>
+        <v>10.111000000000001</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52">
+        <f>SUBTOTAL(9,P7:P27)</f>
+        <v>197</v>
+      </c>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+    </row>
+    <row r="31" spans="1:39" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B31" s="36"/>
+      <c r="C31" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="38"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+    </row>
+    <row r="32" spans="1:39" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B32" s="36"/>
+      <c r="C32" s="165" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="165"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="39"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+    </row>
+    <row r="33" spans="1:39" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="B33" s="36"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+    </row>
+    <row r="34" spans="1:39" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="B34" s="36"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="166" t="s">
+        <v>99</v>
+      </c>
+      <c r="I34" s="167"/>
+      <c r="J34" s="168"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+    </row>
+    <row r="35" spans="1:39" s="2" customFormat="1">
+      <c r="B35" s="36"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="171"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:39" s="2" customFormat="1">
       <c r="B36" s="36"/>
-      <c r="C36" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="E36" s="38"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="46">
-        <f>SUBTOTAL(9, P7:P34)</f>
-        <v>347</v>
-      </c>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="169"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="171"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:39" s="1" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
+    <row r="37" spans="1:39" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A37" s="69"/>
       <c r="B37" s="36"/>
-      <c r="C37" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="50">
-        <f>SUBTOTAL(9,G7:G34)</f>
-        <v>24.036999999999999</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="52">
-        <f>SUBTOTAL(9,P7:P34)</f>
-        <v>347</v>
-      </c>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="53"/>
-      <c r="S37" s="53"/>
-      <c r="T37" s="53"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="171"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="67"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:39" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="38" spans="1:39" s="2" customFormat="1">
+      <c r="A38" s="72" t="s">
+        <v>63</v>
+      </c>
       <c r="B38" s="36"/>
-      <c r="C38" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="51"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="53"/>
-      <c r="S38" s="53"/>
-      <c r="T38" s="53"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="169"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="171"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:39" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B39" s="36"/>
-      <c r="C39" s="192" t="s">
+    <row r="39" spans="1:39" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A39" s="75">
+        <v>1</v>
+      </c>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="169"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="171"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="67"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:39" s="2" customFormat="1" ht="32.25">
+      <c r="A40" s="75">
+        <v>2</v>
+      </c>
+      <c r="B40" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="192"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="56" t="s">
+      <c r="C40" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="G39" s="39"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="53"/>
-      <c r="S39" s="53"/>
-      <c r="T39" s="53"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-    </row>
-    <row r="40" spans="1:39" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B40" s="36"/>
-      <c r="C40" s="192"/>
-      <c r="D40" s="192"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="J40" s="14"/>
+      <c r="D40" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="71"/>
+      <c r="H40" s="169"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="171"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
       <c r="N40" s="5"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="14"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="5"/>
       <c r="R40" s="53"/>
       <c r="S40" s="53"/>
       <c r="T40" s="53"/>
       <c r="U40" s="14"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="1"/>
-      <c r="AG40" s="1"/>
-      <c r="AH40" s="1"/>
-      <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
-      <c r="AK40" s="1"/>
-      <c r="AL40" s="1"/>
-      <c r="AM40" s="1"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53"/>
+      <c r="X40" s="53"/>
+      <c r="Y40" s="53"/>
+      <c r="Z40" s="53"/>
+      <c r="AA40" s="53"/>
+      <c r="AB40" s="53"/>
+      <c r="AC40" s="53"/>
+      <c r="AD40" s="53"/>
+      <c r="AE40" s="53"/>
     </row>
-    <row r="41" spans="1:39" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B41" s="36"/>
-      <c r="C41" s="192"/>
-      <c r="D41" s="192"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="193" t="s">
-        <v>104</v>
-      </c>
-      <c r="I41" s="194"/>
-      <c r="J41" s="195"/>
+    <row r="41" spans="1:39" s="2" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A41" s="75">
+        <v>3</v>
+      </c>
+      <c r="B41" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="76">
+        <v>612.84</v>
+      </c>
+      <c r="E41" s="76">
+        <v>20</v>
+      </c>
+      <c r="F41" s="78"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="169"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="171"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-      <c r="AE41" s="1"/>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1"/>
-      <c r="AH41" s="1"/>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
-      <c r="AK41" s="1"/>
-      <c r="AL41" s="1"/>
-      <c r="AM41" s="1"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="53"/>
+      <c r="S41" s="53"/>
+      <c r="T41" s="53"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="53"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="53"/>
+      <c r="Y41" s="53"/>
+      <c r="Z41" s="53"/>
+      <c r="AA41" s="53"/>
+      <c r="AB41" s="53"/>
+      <c r="AC41" s="53"/>
+      <c r="AD41" s="53"/>
+      <c r="AE41" s="53"/>
     </row>
-    <row r="42" spans="1:39" s="2" customFormat="1">
-      <c r="B42" s="36"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
+    <row r="42" spans="1:39" s="2" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A42" s="75">
+        <v>4</v>
+      </c>
+      <c r="B42" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="76">
+        <v>360</v>
+      </c>
+      <c r="E42" s="76">
+        <v>347</v>
+      </c>
+      <c r="F42" s="78"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="197"/>
-      <c r="J42" s="198"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
+      <c r="H42" s="169"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="171"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="53"/>
+      <c r="AA42" s="53"/>
+      <c r="AB42" s="53"/>
+      <c r="AC42" s="53"/>
+      <c r="AD42" s="53"/>
+      <c r="AE42" s="53"/>
     </row>
     <row r="43" spans="1:39" s="2" customFormat="1">
-      <c r="B43" s="36"/>
-      <c r="C43" s="192"/>
-      <c r="D43" s="192"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="61"/>
+      <c r="A43" s="75">
+        <v>5</v>
+      </c>
+      <c r="B43" s="76"/>
+      <c r="C43" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="79">
+        <f>D44+D45</f>
+        <v>21</v>
+      </c>
+      <c r="E43" s="80">
+        <f>E44+E45</f>
+        <v>25</v>
+      </c>
+      <c r="F43" s="78"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="196"/>
-      <c r="I43" s="197"/>
-      <c r="J43" s="198"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="H43" s="169"/>
+      <c r="I43" s="170"/>
+      <c r="J43" s="171"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="53"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="53"/>
+      <c r="AC43" s="53"/>
+      <c r="AD43" s="53"/>
+      <c r="AE43" s="53"/>
     </row>
     <row r="44" spans="1:39" s="2" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A44" s="69"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
+      <c r="A44" s="75">
+        <v>6</v>
+      </c>
+      <c r="B44" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="76">
+        <v>21</v>
+      </c>
+      <c r="E44" s="80">
+        <v>21</v>
+      </c>
+      <c r="F44" s="78"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="196"/>
-      <c r="I44" s="197"/>
-      <c r="J44" s="198"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="67"/>
-      <c r="O44" s="68"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="H44" s="172"/>
+      <c r="I44" s="173"/>
+      <c r="J44" s="174"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="53"/>
+      <c r="S44" s="53"/>
+      <c r="T44" s="53"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="53"/>
+      <c r="W44" s="53"/>
+      <c r="X44" s="53"/>
+      <c r="Y44" s="53"/>
+      <c r="Z44" s="53"/>
+      <c r="AA44" s="53"/>
+      <c r="AB44" s="53"/>
+      <c r="AC44" s="53"/>
+      <c r="AD44" s="53"/>
+      <c r="AE44" s="53"/>
     </row>
     <row r="45" spans="1:39" s="2" customFormat="1">
-      <c r="A45" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
+      <c r="A45" s="75">
+        <v>7</v>
+      </c>
+      <c r="B45" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="76"/>
+      <c r="E45" s="80">
+        <v>4</v>
+      </c>
+      <c r="F45" s="78"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="196"/>
-      <c r="I45" s="197"/>
-      <c r="J45" s="198"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="53"/>
+      <c r="S45" s="53"/>
+      <c r="T45" s="53"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="53"/>
+      <c r="W45" s="53"/>
+      <c r="X45" s="53"/>
+      <c r="Y45" s="53"/>
+      <c r="Z45" s="53"/>
+      <c r="AA45" s="53"/>
+      <c r="AB45" s="53"/>
+      <c r="AC45" s="53"/>
+      <c r="AD45" s="53"/>
+      <c r="AE45" s="53"/>
     </row>
-    <row r="46" spans="1:39" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="46" spans="1:39" s="2" customFormat="1">
       <c r="A46" s="75">
-        <v>1</v>
-      </c>
-      <c r="B46" s="70"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
+        <v>8</v>
+      </c>
+      <c r="B46" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="76">
+        <v>15.3</v>
+      </c>
+      <c r="E46" s="80">
+        <v>18</v>
+      </c>
+      <c r="F46" s="78"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="196"/>
-      <c r="I46" s="197"/>
-      <c r="J46" s="198"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="67"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="63"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="53"/>
+      <c r="S46" s="53"/>
+      <c r="T46" s="53"/>
     </row>
-    <row r="47" spans="1:39" s="2" customFormat="1" ht="32.25">
+    <row r="47" spans="1:39" s="2" customFormat="1" ht="26.25">
       <c r="A47" s="75">
-        <v>2</v>
-      </c>
-      <c r="B47" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="73" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="E47" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="F47" s="71"/>
-      <c r="H47" s="196"/>
-      <c r="I47" s="197"/>
-      <c r="J47" s="198"/>
+        <v>9</v>
+      </c>
+      <c r="B47" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="76"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="1"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
@@ -7285,39 +6900,24 @@
       <c r="R47" s="53"/>
       <c r="S47" s="53"/>
       <c r="T47" s="53"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="53"/>
-      <c r="AB47" s="53"/>
-      <c r="AC47" s="53"/>
-      <c r="AD47" s="53"/>
-      <c r="AE47" s="53"/>
     </row>
-    <row r="48" spans="1:39" s="2" customFormat="1" ht="15.6" customHeight="1">
+    <row r="48" spans="1:39" s="2" customFormat="1" ht="26.25">
       <c r="A48" s="75">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B48" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="76">
-        <v>612.84</v>
-      </c>
-      <c r="E48" s="76">
-        <v>20</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C48" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="76"/>
+      <c r="E48" s="80"/>
       <c r="F48" s="78"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="196"/>
-      <c r="I48" s="197"/>
-      <c r="J48" s="198"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="1"/>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
@@ -7328,39 +6928,28 @@
       <c r="R48" s="53"/>
       <c r="S48" s="53"/>
       <c r="T48" s="53"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="53"/>
-      <c r="X48" s="53"/>
-      <c r="Y48" s="53"/>
-      <c r="Z48" s="53"/>
-      <c r="AA48" s="53"/>
-      <c r="AB48" s="53"/>
-      <c r="AC48" s="53"/>
-      <c r="AD48" s="53"/>
-      <c r="AE48" s="53"/>
     </row>
-    <row r="49" spans="1:39" s="2" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A49" s="75">
-        <v>4</v>
+    <row r="49" spans="1:39" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A49" s="82">
+        <v>11</v>
       </c>
       <c r="B49" s="76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" s="77" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D49" s="76">
-        <v>360</v>
-      </c>
-      <c r="E49" s="76">
-        <v>347</v>
+        <v>85</v>
+      </c>
+      <c r="E49" s="80">
+        <v>85</v>
       </c>
       <c r="F49" s="78"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="196"/>
-      <c r="I49" s="197"/>
-      <c r="J49" s="198"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="1"/>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
@@ -7371,39 +6960,26 @@
       <c r="R49" s="53"/>
       <c r="S49" s="53"/>
       <c r="T49" s="53"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="53"/>
-      <c r="AA49" s="53"/>
-      <c r="AB49" s="53"/>
-      <c r="AC49" s="53"/>
-      <c r="AD49" s="53"/>
-      <c r="AE49" s="53"/>
     </row>
     <row r="50" spans="1:39" s="2" customFormat="1">
-      <c r="A50" s="75">
-        <v>5</v>
-      </c>
-      <c r="B50" s="76"/>
+      <c r="A50"/>
+      <c r="B50" s="76" t="s">
+        <v>68</v>
+      </c>
       <c r="C50" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="79">
-        <f>D51+D52</f>
-        <v>21</v>
+        <v>80</v>
+      </c>
+      <c r="D50" s="76">
+        <v>29.87</v>
       </c>
       <c r="E50" s="80">
-        <f>E51+E52</f>
-        <v>25</v>
+        <v>24.0669</v>
       </c>
       <c r="F50" s="78"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="196"/>
-      <c r="I50" s="197"/>
-      <c r="J50" s="198"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="1"/>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
@@ -7414,39 +6990,25 @@
       <c r="R50" s="53"/>
       <c r="S50" s="53"/>
       <c r="T50" s="53"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="53"/>
-      <c r="W50" s="53"/>
-      <c r="X50" s="53"/>
-      <c r="Y50" s="53"/>
-      <c r="Z50" s="53"/>
-      <c r="AA50" s="53"/>
-      <c r="AB50" s="53"/>
-      <c r="AC50" s="53"/>
-      <c r="AD50" s="53"/>
-      <c r="AE50" s="53"/>
     </row>
     <row r="51" spans="1:39" s="2" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A51" s="75">
-        <v>6</v>
-      </c>
-      <c r="B51" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="76">
-        <v>21</v>
-      </c>
-      <c r="E51" s="80">
-        <v>21</v>
+      <c r="B51" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="85">
+        <v>104.55</v>
+      </c>
+      <c r="E51" s="86">
+        <v>56.37</v>
       </c>
       <c r="F51" s="78"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="199"/>
-      <c r="I51" s="200"/>
-      <c r="J51" s="201"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="1"/>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
@@ -7457,31 +7019,19 @@
       <c r="R51" s="53"/>
       <c r="S51" s="53"/>
       <c r="T51" s="53"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="53"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="53"/>
-      <c r="Y51" s="53"/>
-      <c r="Z51" s="53"/>
-      <c r="AA51" s="53"/>
-      <c r="AB51" s="53"/>
-      <c r="AC51" s="53"/>
-      <c r="AD51" s="53"/>
-      <c r="AE51" s="53"/>
     </row>
-    <row r="52" spans="1:39" s="2" customFormat="1">
-      <c r="A52" s="75">
-        <v>7</v>
-      </c>
-      <c r="B52" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="80">
-        <v>4</v>
+    <row r="52" spans="1:39" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B52"/>
+      <c r="C52" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="88">
+        <f>D41+D42+D51+(D49*D46)+(D49*D47)+(D49*D48)</f>
+        <v>2377.8900000000003</v>
+      </c>
+      <c r="E52" s="88">
+        <f>E41+E42+E51+(E49*E46)+(E49*E47)+(E49*E48)</f>
+        <v>1953.37</v>
       </c>
       <c r="F52" s="78"/>
       <c r="G52" s="1"/>
@@ -7498,35 +7048,18 @@
       <c r="R52" s="53"/>
       <c r="S52" s="53"/>
       <c r="T52" s="53"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="53"/>
-      <c r="W52" s="53"/>
-      <c r="X52" s="53"/>
-      <c r="Y52" s="53"/>
-      <c r="Z52" s="53"/>
-      <c r="AA52" s="53"/>
-      <c r="AB52" s="53"/>
-      <c r="AC52" s="53"/>
-      <c r="AD52" s="53"/>
-      <c r="AE52" s="53"/>
     </row>
     <row r="53" spans="1:39" s="2" customFormat="1">
-      <c r="A53" s="75">
-        <v>8</v>
-      </c>
-      <c r="B53" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="76">
-        <v>15.3</v>
-      </c>
-      <c r="E53" s="80">
-        <v>18</v>
-      </c>
-      <c r="F53" s="78"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="90">
+        <f>E51/E44</f>
+        <v>2.6842857142857142</v>
+      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="62"/>
@@ -7542,19 +7075,17 @@
       <c r="S53" s="53"/>
       <c r="T53" s="53"/>
     </row>
-    <row r="54" spans="1:39" s="2" customFormat="1" ht="26.25">
-      <c r="A54" s="75">
-        <v>9</v>
-      </c>
-      <c r="B54" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="78"/>
+    <row r="54" spans="1:39">
+      <c r="B54" s="36"/>
+      <c r="C54" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="91">
+        <f>E50/E44-1</f>
+        <v>0.14604285714285714</v>
+      </c>
+      <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="62"/>
@@ -7569,20 +7100,32 @@
       <c r="R54" s="53"/>
       <c r="S54" s="53"/>
       <c r="T54" s="53"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="2"/>
     </row>
-    <row r="55" spans="1:39" s="2" customFormat="1" ht="26.25">
-      <c r="A55" s="75">
-        <v>10</v>
-      </c>
-      <c r="B55" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="78"/>
+    <row r="55" spans="1:39">
+      <c r="B55" s="36"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="62"/>
@@ -7597,253 +7140,41 @@
       <c r="R55" s="53"/>
       <c r="S55" s="53"/>
       <c r="T55" s="53"/>
-    </row>
-    <row r="56" spans="1:39" s="2" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A56" s="82">
-        <v>11</v>
-      </c>
-      <c r="B56" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="76">
-        <v>85</v>
-      </c>
-      <c r="E56" s="80">
-        <v>85</v>
-      </c>
-      <c r="F56" s="78"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="63"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="53"/>
-      <c r="S56" s="53"/>
-      <c r="T56" s="53"/>
-    </row>
-    <row r="57" spans="1:39" s="2" customFormat="1">
-      <c r="A57"/>
-      <c r="B57" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="76">
-        <v>29.87</v>
-      </c>
-      <c r="E57" s="80">
-        <v>24.0669</v>
-      </c>
-      <c r="F57" s="78"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="63"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="53"/>
-      <c r="S57" s="53"/>
-      <c r="T57" s="53"/>
-    </row>
-    <row r="58" spans="1:39" s="2" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B58" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="85">
-        <v>104.55</v>
-      </c>
-      <c r="E58" s="86">
-        <v>56.37</v>
-      </c>
-      <c r="F58" s="78"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="63"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="53"/>
-      <c r="S58" s="53"/>
-      <c r="T58" s="53"/>
-    </row>
-    <row r="59" spans="1:39" s="2" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B59"/>
-      <c r="C59" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="88">
-        <f>D48+D49+D58+(D56*D53)+(D56*D54)+(D56*D55)</f>
-        <v>2377.8900000000003</v>
-      </c>
-      <c r="E59" s="88">
-        <f>E48+E49+E58+(E56*E53)+(E56*E54)+(E56*E55)</f>
-        <v>1953.37</v>
-      </c>
-      <c r="F59" s="78"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="63"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="53"/>
-      <c r="T59" s="53"/>
-    </row>
-    <row r="60" spans="1:39" s="2" customFormat="1">
-      <c r="B60" s="36"/>
-      <c r="C60" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="90">
-        <f>E58/E51</f>
-        <v>2.6842857142857142</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="63"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="53"/>
-      <c r="S60" s="53"/>
-      <c r="T60" s="53"/>
-    </row>
-    <row r="61" spans="1:39">
-      <c r="B61" s="36"/>
-      <c r="C61" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="91">
-        <f>E57/E51-1</f>
-        <v>0.14604285714285714</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="63"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="53"/>
-      <c r="S61" s="53"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
-      <c r="AC61" s="2"/>
-      <c r="AD61" s="2"/>
-      <c r="AE61" s="2"/>
-      <c r="AF61" s="2"/>
-      <c r="AG61" s="2"/>
-      <c r="AH61" s="2"/>
-      <c r="AI61" s="2"/>
-      <c r="AJ61" s="2"/>
-      <c r="AK61" s="2"/>
-      <c r="AL61" s="2"/>
-      <c r="AM61" s="2"/>
-    </row>
-    <row r="62" spans="1:39">
-      <c r="B62" s="36"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="63"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="53"/>
-      <c r="T62" s="53"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
-      <c r="AA62" s="2"/>
-      <c r="AB62" s="2"/>
-      <c r="AC62" s="2"/>
-      <c r="AD62" s="2"/>
-      <c r="AE62" s="2"/>
-      <c r="AF62" s="2"/>
-      <c r="AG62" s="2"/>
-      <c r="AH62" s="2"/>
-      <c r="AI62" s="2"/>
-      <c r="AJ62" s="2"/>
-      <c r="AK62" s="2"/>
-      <c r="AL62" s="2"/>
-      <c r="AM62" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C39:D43"/>
-    <mergeCell ref="H41:J51"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="O5:P5"/>
+    <mergeCell ref="C32:D36"/>
+    <mergeCell ref="H34:J44"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="M7:M34">
+  <conditionalFormatting sqref="M7:M27">
     <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
       <formula>IF(AND(IF(M7="",FALSE,TRUE),IF(N7="",FALSE,TRUE))=TRUE,TRUE,FALSE)</formula>
     </cfRule>
@@ -7854,7 +7185,7 @@
       <formula>IF(AND(IF(L7="",FALSE,TRUE),IF(M7="",FALSE,TRUE))=FALSE,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:L34">
+  <conditionalFormatting sqref="L7:L27">
     <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>IF(AND(IF(L7&lt;TODAY(),TRUE,FALSE),ISBLANK(N7)),TRUE,FALSE)</formula>
     </cfRule>
@@ -7865,7 +7196,7 @@
       <formula>IF(AND(IF(L7&lt;TODAY(),TRUE,FALSE),ISBLANK(M7)),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7:N34">
+  <conditionalFormatting sqref="N7:N27">
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>IF(AND(ISBLANK(N7),IF(L7&lt;TODAY(),TRUE,FALSE))=FALSE,FALSE,TRUE)</formula>
     </cfRule>
